--- a/data/trans_orig/P36B12_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B12_2023-Provincia-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+          <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>78,13%</t>
+          <t>77,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>85,33%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>83,19%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>20,07%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,53%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>59,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>54,83%</t>
+          <t>54,4%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>28,97%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>28,48%</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>79,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>77,32%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>77,35%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,57%</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>45,93%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>59,97%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>68,0%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,25%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,21%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>57,12%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>83,55%</t>
+          <t>83,49%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>78,09%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>83,55%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>43,07%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>69,29%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>59,3%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>30,35%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>41,53%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>48,2%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3935,12 +3935,12 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>49,26%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>56,1%</t>
         </is>
       </c>
     </row>
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
